--- a/site/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/site/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:33:51+00:00</t>
+    <t>2024-02-29T07:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/site/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:43:11+00:00</t>
+    <t>2024-02-29T07:55:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
